--- a/FKandIK_Spherical_Trial_Table.xlsx
+++ b/FKandIK_Spherical_Trial_Table.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saloj\Documents\3rd Year 2nd Sem\Rob2\LAB 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saloj\Documents\GitHub\Robotics2_FK-IK_Group7_SPHERICAL_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F4AAB9-1643-4424-97CA-DF1E87E59940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4D99A-B4DF-495E-AD2E-8AB31A7DF7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DD6C54B4-0519-4D5C-BD8E-882E316D70A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DD6C54B4-0519-4D5C-BD8E-882E316D70A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FK" sheetId="1" r:id="rId1"/>
+    <sheet name="IK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,6 +142,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,9 +155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,52 +491,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C0A52-E7AC-4B6A-9BAD-F25000FCBFC2}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -597,6 +598,310 @@
       <c r="G4" s="3">
         <v>5</v>
       </c>
+      <c r="H4" s="5">
+        <v>-90</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-45</v>
+      </c>
+      <c r="C5" s="2">
+        <f>90/4</f>
+        <v>22.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-3.1030000000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.8179999999999996</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-45</v>
+      </c>
+      <c r="I5" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-3.1030000000000002</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.8179999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>90/2</f>
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.8889999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.8889999999999993</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3.8889999999999998</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8.8889999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <f>90*3/4</f>
+        <v>67.5</v>
+      </c>
+      <c r="D7" s="2">
+        <f>3*3/4</f>
+        <v>2.25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.773999999999999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45</v>
+      </c>
+      <c r="I7" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>10.773999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
+        <v>90</v>
+      </c>
+      <c r="I8" s="5">
+        <v>90</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489B2D23-ABA8-4BEC-8A75-EF5347E1DCB4}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-90</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -619,15 +924,9 @@
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="E5" s="3">
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-3.1030000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>6.8179999999999996</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -650,15 +949,9 @@
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="E6" s="3">
-        <v>3.8889999999999998</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8.8889999999999993</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -681,15 +974,9 @@
         <f>3*3/4</f>
         <v>2.25</v>
       </c>
-      <c r="E7" s="3">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10.773999999999999</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -710,15 +997,9 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -726,176 +1007,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>

--- a/FKandIK_Spherical_Trial_Table.xlsx
+++ b/FKandIK_Spherical_Trial_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saloj\Documents\GitHub\Robotics2_FK-IK_Group7_SPHERICAL_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4D99A-B4DF-495E-AD2E-8AB31A7DF7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BFE142-1484-4516-A985-7DE062189331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DD6C54B4-0519-4D5C-BD8E-882E316D70A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD6C54B4-0519-4D5C-BD8E-882E316D70A3}"/>
   </bookViews>
   <sheets>
     <sheet name="FK" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C0A52-E7AC-4B6A-9BAD-F25000FCBFC2}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.25</v>
       </c>
@@ -660,7 +660,7 @@
         <v>6.8179999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -703,7 +703,7 @@
         <v>8.8889999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.75</v>
       </c>
@@ -746,7 +746,7 @@
         <v>10.773999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489B2D23-ABA8-4BEC-8A75-EF5347E1DCB4}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
